--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -512,10 +536,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -559,28 +583,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="3">
+      <c r="A15" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="3">
+      <c r="C15" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -605,28 +629,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="3">
+      <c r="I17" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -772,10 +796,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -819,28 +843,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -865,28 +889,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1032,10 +1056,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1079,28 +1103,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="3">
+      <c r="C33" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1125,28 +1149,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1321,10 +1345,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="3" t="s">
+      <c r="J41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1368,28 +1392,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="3">
+      <c r="A43" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="3">
+      <c r="C43" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1414,28 +1438,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="C45" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="3">
+      <c r="I45" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1610,10 +1634,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="J51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1657,28 +1681,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="3">
+      <c r="C53" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1703,28 +1727,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1899,10 +1923,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="3" t="s">
+      <c r="J61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1946,28 +1970,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="3">
+      <c r="A63" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="3">
+      <c r="C63" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1992,28 +2016,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="C65" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="3">
+      <c r="D65" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="3">
+      <c r="I65" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2159,10 +2183,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="J70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2206,28 +2230,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="3">
+      <c r="C72" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2252,28 +2276,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2390,10 +2414,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2437,28 +2461,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2483,28 +2507,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2679,10 +2703,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="J88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2726,28 +2750,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="A90" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="3">
+      <c r="C90" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2772,28 +2796,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="3">
+      <c r="I92" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2939,10 +2963,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2986,28 +3010,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3032,28 +3056,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3141,10 +3165,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3188,28 +3212,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3234,28 +3258,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3401,10 +3425,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3448,28 +3472,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3494,28 +3518,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3661,10 +3685,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="J122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3708,28 +3732,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="3">
+      <c r="C124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3754,28 +3778,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3950,10 +3974,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="3" t="s">
+      <c r="J132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3997,28 +4021,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="3">
+      <c r="A134" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="3">
+      <c r="C134" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4043,28 +4067,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="3">
+      <c r="C136" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="3">
+      <c r="D136" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="3">
+      <c r="I136" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4210,10 +4234,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="J141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4257,28 +4281,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="3">
+      <c r="C143" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4303,28 +4327,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4470,10 +4494,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="3" t="s">
+      <c r="J150" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4517,28 +4541,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="A152" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="3">
+      <c r="C152" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4563,28 +4587,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="3">
+      <c r="I154" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4730,10 +4754,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="3" t="s">
+      <c r="J159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4777,28 +4801,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="3">
+      <c r="A161" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="3">
+      <c r="C161" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4823,28 +4847,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="3">
+      <c r="C163" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="3">
+      <c r="D163" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="3">
+      <c r="I163" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5019,10 +5043,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="3" t="s">
+      <c r="J169" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5066,28 +5090,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="3">
+      <c r="A171" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="3">
+      <c r="C171" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5112,28 +5136,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="3">
+      <c r="C173" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="3">
+      <c r="D173" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="3">
+      <c r="I173" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5279,10 +5303,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="3" t="s">
+      <c r="J178" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5326,28 +5350,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="3">
+      <c r="A180" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="3">
+      <c r="C180" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5372,28 +5396,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="3">
+      <c r="B182" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="3">
+      <c r="C182" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="3">
+      <c r="D182" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="3">
+      <c r="E182" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="3">
+      <c r="F182" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="3">
+      <c r="G182" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="3">
+      <c r="H182" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="3">
+      <c r="I182" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5568,10 +5592,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="3" t="s">
+      <c r="J188" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5615,28 +5639,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="3">
+      <c r="A190" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="3">
+      <c r="C190" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5661,28 +5685,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="3">
+      <c r="C192" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="3">
+      <c r="D192" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="3">
+      <c r="I192" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5799,10 +5823,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="3" t="s">
+      <c r="J196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5846,28 +5870,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="3">
+      <c r="A198" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="3">
+      <c r="C198" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5892,28 +5916,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="3">
+      <c r="C200" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="3">
+      <c r="D200" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="3">
+      <c r="I200" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6001,10 +6025,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="3" t="s">
+      <c r="J203" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6048,28 +6072,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="3">
+      <c r="A205" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="3">
+      <c r="C205" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6094,28 +6118,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="3">
+      <c r="C207" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="3">
+      <c r="D207" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="3">
+      <c r="I207" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6261,10 +6285,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6308,28 +6332,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6354,28 +6378,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6434,10 +6458,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="3" t="s">
+      <c r="J218" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6481,28 +6505,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="3">
+      <c r="A220" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="3">
+      <c r="C220" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6527,28 +6551,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="3">
+      <c r="C222" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="3">
+      <c r="D222" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="3">
+      <c r="I222" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6636,10 +6660,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="3" t="s">
+      <c r="J225" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6683,28 +6707,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="3">
+      <c r="A227" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="3">
+      <c r="C227" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6729,28 +6753,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="3">
+      <c r="C229" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="3">
+      <c r="D229" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="3">
+      <c r="I229" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6809,10 +6833,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="3" t="s">
+      <c r="J231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
